--- a/1/9/1/PIB 2003 a 2020 - Trimestral.xlsx
+++ b/1/9/1/PIB 2003 a 2020 - Trimestral.xlsx
@@ -1157,10 +1157,10 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="C51">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1168,7 +1168,7 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="C52">
         <v>3.1</v>
@@ -1179,7 +1179,7 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="C53">
         <v>2.9</v>
@@ -1212,7 +1212,7 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="C56">
         <v>2.9</v>
@@ -1248,7 +1248,7 @@
         <v>3.5</v>
       </c>
       <c r="C59">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1259,7 +1259,7 @@
         <v>3.8</v>
       </c>
       <c r="C60">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1292,7 +1292,7 @@
         <v>3.9</v>
       </c>
       <c r="C63">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1303,7 +1303,7 @@
         <v>3.5</v>
       </c>
       <c r="C64">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1314,7 +1314,7 @@
         <v>3</v>
       </c>
       <c r="C65">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1322,10 +1322,10 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="C66">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1333,10 +1333,10 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="C67">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1344,10 +1344,10 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="C68">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1358,7 +1358,7 @@
         <v>2.1</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1366,10 +1366,10 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>-2.7</v>
+        <v>-2.8</v>
       </c>
       <c r="C70">
-        <v>-15.4</v>
+        <v>-16.3</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1377,10 +1377,10 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>-9.1</v>
+        <v>-8.9</v>
       </c>
       <c r="C71">
-        <v>-11</v>
+        <v>-8.5</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1391,7 +1391,7 @@
         <v>-3.3</v>
       </c>
       <c r="C72">
-        <v>25</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1399,10 +1399,10 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>-2.5</v>
+        <v>-2.2</v>
       </c>
       <c r="C73">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
     </row>
   </sheetData>
